--- a/web/static/test_data.xlsx
+++ b/web/static/test_data.xlsx
@@ -1,30 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26924"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED45CB7E-5120-48E2-9C76-8CA2FA8A969A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="1095" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>email</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>username1</t>
+  </si>
+  <si>
     <t>name</t>
   </si>
   <si>
@@ -61,6 +61,9 @@
     <t>postal</t>
   </si>
   <si>
+    <t>keywords</t>
+  </si>
+  <si>
     <t>description</t>
   </si>
   <si>
@@ -70,6 +73,12 @@
     <t>jose.cortes@bluepath.es</t>
   </si>
   <si>
+    <t>jose1234</t>
+  </si>
+  <si>
+    <t>jose1 jaja</t>
+  </si>
+  <si>
     <t>Jose</t>
   </si>
   <si>
@@ -98,6 +107,9 @@
   </si>
   <si>
     <t>Madrid</t>
+  </si>
+  <si>
+    <t>Calderas</t>
   </si>
   <si>
     <t>Especialistas en instalación de calderas</t>
@@ -109,8 +121,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,14 +134,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -167,38 +171,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -236,7 +229,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -270,7 +263,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -305,10 +297,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -481,27 +472,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:R2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" customWidth="1"/>
-    <col min="4" max="4" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="45.6328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="34.453125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="120.6328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -547,58 +525,73 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
-        <v>15</v>
+    <row r="2" spans="1:18">
+      <c r="A2" t="s">
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="G2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="H2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2">
+        <v>29</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>30</v>
+      </c>
+      <c r="O2">
         <v>28932</v>
       </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
+      <c r="P2" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>32</v>
+      </c>
+      <c r="R2" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{3F04E3F4-C362-4C2A-8292-C6D17BB0F4A0}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>